--- a/data/trans_bre/P44-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P44-Dificultad-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>-3.642059814411075</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2.22138112270559</v>
+        <v>2.221381122705596</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0.1792312034092877</v>
@@ -627,7 +627,7 @@
         <v>-0.3818720961873753</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07985781774403629</v>
+        <v>0.07985781774403651</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.727981960870331</v>
+        <v>-2.798649009357407</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.473443713673166</v>
+        <v>-7.331208049918231</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.726294798711762</v>
+        <v>-5.56871634067738</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.3347388847897041</v>
+        <v>-0.3080844543995509</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6339270708554293</v>
+        <v>-0.6145208367847697</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1749075046499691</v>
+        <v>-0.164515859843019</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.13535081094448</v>
+        <v>5.099209673998957</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.4660546788178189</v>
+        <v>-0.1330619199360105</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.809692789737026</v>
+        <v>8.783192212090137</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.10045578368219</v>
+        <v>1.150748132048069</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.0357428616793574</v>
+        <v>-0.02070956581184168</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3791485887595262</v>
+        <v>0.3738138400117257</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>-3.67801040309056</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-7.284691225256335</v>
+        <v>-7.28469122525634</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.3505882860486085</v>
@@ -709,7 +709,7 @@
         <v>-0.3244866832519119</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.2086766403457686</v>
+        <v>-0.2086766403457687</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-9.23557137113297</v>
+        <v>-8.572297474721658</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-8.320571993512166</v>
+        <v>-7.792661998116335</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-12.3155676206824</v>
+        <v>-12.78677980191698</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6231456637411145</v>
+        <v>-0.6054140923376997</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5861300845726107</v>
+        <v>-0.5868730718330402</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3229703024669859</v>
+        <v>-0.3309015315640522</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6859834505062413</v>
+        <v>0.80189325098708</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3468294224651694</v>
+        <v>0.2232129506319933</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-1.898877873335474</v>
+        <v>-2.804913785046355</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.09359104439098835</v>
+        <v>0.114648034919914</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.05846710497434383</v>
+        <v>0.03810896516790654</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.06080230378440032</v>
+        <v>-0.08149723371143092</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>-2.980425602572226</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-6.125313985912262</v>
+        <v>-6.125313985912256</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>-0.2845082025653869</v>
@@ -791,7 +791,7 @@
         <v>-0.2552808138438834</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>-0.1666826445832122</v>
+        <v>-0.1666826445832121</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.601634344861992</v>
+        <v>-6.633790426957644</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.726035205568957</v>
+        <v>-7.266672897751916</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-10.901484321842</v>
+        <v>-11.48041279466404</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.5978177494772118</v>
+        <v>-0.6006264374859401</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5428400105429222</v>
+        <v>-0.5231221786956226</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2798169046844994</v>
+        <v>-0.2863066242493519</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.670091773057318</v>
+        <v>1.748389037082666</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.92020670618476</v>
+        <v>2.012760373886665</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.097407373487312</v>
+        <v>-1.026397541527397</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.299527164660603</v>
+        <v>0.2899566437672268</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.228027148248706</v>
+        <v>0.2311003965619264</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.032804426878959</v>
+        <v>-0.03063418412921717</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>-7.740327104689329</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>-7.728836880446299</v>
+        <v>-7.728836880446305</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.3011945902647731</v>
@@ -873,7 +873,7 @@
         <v>-0.4385069529872409</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.1859444240015903</v>
+        <v>-0.1859444240015904</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-12.47141040924519</v>
+        <v>-13.50583471482572</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-14.72310289874165</v>
+        <v>-15.49129623094173</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-13.38434706700542</v>
+        <v>-13.44018811549695</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6471356486115035</v>
+        <v>-0.6522601471655651</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7050259364753797</v>
+        <v>-0.6965620349352107</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3001395719435092</v>
+        <v>-0.2954010605928771</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.061369489693536</v>
+        <v>2.822286624207064</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.241970638359187</v>
+        <v>-0.6428507505445851</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-1.972373433282745</v>
+        <v>-2.665566849723852</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3302110023294323</v>
+        <v>0.3536880288229861</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.03410628853865946</v>
+        <v>-0.04663517539671287</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.05136637754463176</v>
+        <v>-0.0674540537986589</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>-4.280949835736664</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-5.975437359772701</v>
+        <v>-5.975437359772718</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>-0.2140750488437479</v>
@@ -955,7 +955,7 @@
         <v>-0.3629049481084782</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>-0.1644401705687573</v>
+        <v>-0.1644401705687577</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.300780331513548</v>
+        <v>-4.436982424525882</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.4279992571319</v>
+        <v>-6.514156255196863</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.599431466021576</v>
+        <v>-8.848095990874871</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.3953506247429991</v>
+        <v>-0.3962789408272526</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5001316973775893</v>
+        <v>-0.499712270310691</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2284882454140217</v>
+        <v>-0.2296778540109913</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4058837641997033</v>
+        <v>0.2711607271175043</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.006967912764448</v>
+        <v>-1.929665839902295</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-3.101688543052724</v>
+        <v>-3.214703723683212</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.056990622205319</v>
+        <v>0.04122120596358188</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.2007486007124837</v>
+        <v>-0.1783886915643904</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.09001593517977706</v>
+        <v>-0.09140943314082042</v>
       </c>
     </row>
     <row r="19">
